--- a/sunset_HSV.xlsx
+++ b/sunset_HSV.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap.sharepoint.com/teams/TaskWorkstream-ImplementationPortalforS4HANA/Shared Documents/Rollout/Planning &amp; Roadmap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d043396/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB120350-5875-A64B-9818-A11C3D770014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464AFE3D-7305-9B47-9100-111A277D4A74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{1E2FAE7B-25A3-0B40-80A1-92BF9119ED2D}"/>
+    <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{1E2FAE7B-25A3-0B40-80A1-92BF9119ED2D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SunRise" sheetId="2" r:id="rId1"/>
+    <sheet name="MoonRise" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>HUE</t>
   </si>
@@ -396,10 +397,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C40F2D5-6AAA-8245-8CD0-42FEE0D93AB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64532E5-B6DC-FD4E-A29E-D4F3EA1732D6}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -1858,7 +1859,777 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C40F2D5-6AAA-8245-8CD0-42FEE0D93AB3}">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H2:H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>172</v>
+      </c>
+      <c r="B2" t="str">
+        <f>DEC2HEX(A2,2)</f>
+        <v>AC</v>
+      </c>
+      <c r="C2">
+        <v>91</v>
+      </c>
+      <c r="D2" t="str">
+        <f>DEC2HEX(C2,2)</f>
+        <v>5B</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="str">
+        <f>DEC2HEX(E2,2)</f>
+        <v>00</v>
+      </c>
+      <c r="H2" t="str">
+        <f>_xlfn.CONCAT("'",B2,D2,F2,"',")</f>
+        <v>'AC5B00',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>172</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B54" si="0">DEC2HEX(A3,2)</f>
+        <v>AC</v>
+      </c>
+      <c r="C3">
+        <v>91</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D54" si="1">DEC2HEX(C3,2)</f>
+        <v>5B</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F54" si="2">DEC2HEX(E3,2)</f>
+        <v>0A</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H54" si="3">_xlfn.CONCAT("'",B3,D3,F3,"',")</f>
+        <v>'AC5B0A',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>172</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C4">
+        <v>91</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5B14',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>172</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C5">
+        <v>91</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="2"/>
+        <v>1E</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5B1E',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>172</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C6">
+        <v>91</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5B28',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>172</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C7">
+        <v>91</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5B32',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>172</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C8">
+        <v>91</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E8">
+        <v>60</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
+        <v>3C</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5B3C',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>172</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C9">
+        <v>91</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E9">
+        <v>70</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5B46',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>172</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C10">
+        <v>91</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E10">
+        <v>80</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5B50',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>172</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C11">
+        <v>91</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E11">
+        <v>90</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="2"/>
+        <v>5A</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5B5A',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>172</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C12">
+        <v>91</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5B64',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>172</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C13">
+        <v>91</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E13">
+        <v>110</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="2"/>
+        <v>6E</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5B6E',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>172</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C14">
+        <v>91</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E14">
+        <v>120</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5B78',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>172</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C15">
+        <v>91</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E15">
+        <v>130</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5B82',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>172</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C16">
+        <v>91</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E16">
+        <v>140</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="2"/>
+        <v>8C</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5B8C',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>172</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C17">
+        <v>91</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E17">
+        <v>150</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5B96',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>172</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C18">
+        <v>91</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E18">
+        <v>160</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="2"/>
+        <v>A0</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5BA0',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>172</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C19">
+        <v>91</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E19">
+        <v>170</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="2"/>
+        <v>AA</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5BAA',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>172</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C20">
+        <v>91</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E20">
+        <v>180</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="2"/>
+        <v>B4</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5BB4',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>172</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C21">
+        <v>91</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E21">
+        <v>190</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="2"/>
+        <v>BE</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5BBE',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>172</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C22">
+        <v>91</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E22">
+        <v>200</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="2"/>
+        <v>C8</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5BC8',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>172</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C23">
+        <v>91</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E23">
+        <v>210</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="2"/>
+        <v>D2</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5BD2',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>172</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C24">
+        <v>91</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E24">
+        <v>220</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="2"/>
+        <v>DC</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5BDC',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>172</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C25">
+        <v>91</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E25">
+        <v>230</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="2"/>
+        <v>E6</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5BE6',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>172</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C26">
+        <v>91</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E26">
+        <v>240</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="2"/>
+        <v>F0</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5BF0',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>172</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C27">
+        <v>91</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E27">
+        <v>250</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="2"/>
+        <v>FA</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5BFA',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>172</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="C28">
+        <v>91</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>5B</v>
+      </c>
+      <c r="E28">
+        <v>255</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="2"/>
+        <v>FF</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="3"/>
+        <v>'AC5BFF',</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EB4457A4F8C04F46A343E6890AAEFACB" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6b2f23b757937b8e14dd40fccf8c4540">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e60af7e9-cef6-4c49-85e8-5f0ccce5b4e0" xmlns:ns3="93cdc299-bdb9-4013-8c51-0413f8a65292" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9600d4746c874aaa890240444c224e7" ns2:_="" ns3:_="">
     <xsd:import namespace="e60af7e9-cef6-4c49-85e8-5f0ccce5b4e0"/>
@@ -2075,15 +2846,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2091,13 +2853,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C729EDBB-7389-4781-A767-548025D351E4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5445C2C-8DE3-4808-8A40-E80199069631}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5445C2C-8DE3-4808-8A40-E80199069631}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C729EDBB-7389-4781-A767-548025D351E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e60af7e9-cef6-4c49-85e8-5f0ccce5b4e0"/>
+    <ds:schemaRef ds:uri="93cdc299-bdb9-4013-8c51-0413f8a65292"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3207CF6B-AE1F-41E4-B4F0-5F4FF80CB7B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3207CF6B-AE1F-41E4-B4F0-5F4FF80CB7B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>